--- a/biology/Zoologie/Faune_de_Guinée/Faune_de_Guinée.xlsx
+++ b/biology/Zoologie/Faune_de_Guinée/Faune_de_Guinée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faune_de_Guin%C3%A9e</t>
+          <t>Faune_de_Guinée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faune de Guinée est très diversifiée en raison de la grande variété de différents habitats. La partie sud du pays se trouve dans les forêts guinéennes qui regorgeants un grand nombre de biodiversité de l'Afrique de l'Ouest, tandis que le nord-est est caractérisé par des forêts sèches de savane. Les écorégions de la Guinée sont la forêt de plaine de la Guinée occidentale, la forêt de montagne guinéenne, la mosaïque forêt-savane guinéenne, la savane soudanienne occidentale et les mangroves guinéennes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faune_de_Guin%C3%A9e</t>
+          <t>Faune_de_Guinée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Les mammifères
-Liste des mammifères de Guinée
+          <t>Les mammifères</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des mammifères de Guinée
 Buffle d'Afrique
 Buffle des forêts d'Afrique
 Éléphant de forêt africaine
@@ -529,15 +546,83 @@
 Chimpanzé occidental
 Éland géant occidental
 Bongo occidental
-Céphalophe zèbre
-Des oiseaux
-Liste des oiseaux de Guinée
+Céphalophe zèbre</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Faune_de_Guinée</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_Guin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Des oiseaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des oiseaux de Guinée
 Tourterelle à tête bleue
 Iris brillant-étourneau
 Rockfowl à cou blanc
-Pintade à poitrine blanche
-Reptiles
-Atractaspis aterrima
+Pintade à poitrine blanche</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Faune_de_Guinée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_Guin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractaspis aterrima
 Additionneur de bouffées africaines
 Python de roche africain
 Python royal
@@ -554,8 +639,43 @@
 Agama agama
 Caméléons
 non
-Amphibiens
-Arthroleptis bivittatus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faune_de_Guinée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_Guin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Arthroleptis bivittatus
 Arthroleptis crusculum
 Arthroleptis poecilonotus
 Astylosternus occidentalis
@@ -590,67 +710,69 @@
 Ptychadena pujoli
 Ptychadena submascareniensis
 Ptychadena tournieri
-Ptychadena trinodis
-Insectes
-Papillons et mites</t>
+Ptychadena trinodis</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Faune_de_Guin%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faune_de_Guinée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Faune_de_Guin%C3%A9e</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Flore de Guinée</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Faune_de_Guin%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faune_de_Guinée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Faune_de_Guin%C3%A9e</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les populations en déclin de grands mammifères sont limitées aux parties éloignées inhabitées des parcs et des réserves, en raison de la conservation inappropriée de la nature. Une ONG remarquable spécialisée dans la conservation de la nature est les parcs guinéens. Les bastions célèbres de la faune guinéenne sont la forêt classée de Pinselly, le parc national du Haut-Nigerr, le parc national du Badiar, la réserve naturelle intégrale du Mont Nimba, le massif de Ziama, la réserve de Bossou Hills et la forêt classée de Diécké.
 </t>
